--- a/biology/Botanique/Porphyra_cuneiformis/Porphyra_cuneiformis.xlsx
+++ b/biology/Botanique/Porphyra_cuneiformis/Porphyra_cuneiformis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Wildemania amplissima est une espèce d'algues rouges de la famille des Bangiaceae. 
 </t>
@@ -511,7 +523,9 @@
           <t>Synonyme</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Synonymes homotypiques : 
 Diploderma amplissima Kjellman 1883
@@ -549,17 +563,19 @@
           <t>Liste des formes</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon Catalogue of Life                                   (6 déc. 2012)[1] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon Catalogue of Life                                   (6 déc. 2012) :
 forme Porphyra amplissima f. crassa
 forme Porphyra amplissima f. elliptica
 forme Porphyra amplissima f. lanceolata
-Selon World Register of Marine Species                               (6 déc. 2012)[2] :
+Selon World Register of Marine Species                               (6 déc. 2012) :
 forme Porphyra amplissima f. crassa S.Kawabata, 1936
 forme Porphyra amplissima f. elliptica Nagai, 1941
 forme Porphyra amplissima f. lanceolata Nagai, 1941
-Selon World Register of Marine Species                               (6 déc. 2012)[2] :
+Selon World Register of Marine Species                               (6 déc. 2012) :
 forme Wildemania amplissima f. planiuscula (Foslie) Foslie, 1891</t>
         </is>
       </c>
